--- a/params/data_gen_v2.xlsx
+++ b/params/data_gen_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U_M1JY5\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FA48E1-CA05-4D97-979D-A6352980A274}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBCA94B-F086-46C5-9DC1-0E4BFFB7AFFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1945,7 +1945,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2156,7 +2156,7 @@
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.73046875" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.06640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.9296875" style="3" customWidth="1"/>
     <col min="7" max="7" width="36.3984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>table_name="table_name"; column_name="column_name"; relation_type="one_to_one/one_to_many"</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>table_name="table_name"; column_name="column_name"; relation_type="one_to_one/one_to_many"</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
@@ -2290,7 +2290,7 @@
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.53125" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1328125" style="3" customWidth="1"/>
     <col min="7" max="7" width="36.3984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>table_name="table_name"; column_name="column_name"; relation_type="one_to_one/one_to_many"</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>table_name="table_name"; column_name="column_name"; relation_type="one_to_one/one_to_many"</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>table_name="table_name"; column_name="column_name"; relation_type="one_to_one/one_to_many"</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>51</v>
       </c>
@@ -2443,7 +2443,7 @@
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.59765625" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.19921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.06640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="36.3984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2513,7 +2513,7 @@
         <v>table_name="table_name"; column_name="column_name"; relation_type="one_to_one/one_to_many"</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>30</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>table_name="table_name"; column_name="column_name"; relation_type="one_to_one/one_to_many"</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>60</v>
       </c>
@@ -2596,7 +2596,7 @@
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.59765625" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.19921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.06640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="36.3984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>15</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>table_name="table_name"; column_name="column_name"; relation_type="one_to_one/one_to_many"</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>table_name="table_name"; column_name="column_name"; relation_type="one_to_one/one_to_many"</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>table_name="table_name"; column_name="column_name"; relation_type="one_to_one/one_to_many"</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>55</v>
       </c>
